--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4015986.399537141</v>
+        <v>4091085.18494927</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051491</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7513306.530852274</v>
+        <v>7411858.50509469</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>85.72834075468911</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>40.56696428347033</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>208.9978294690247</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>33.84234274505287</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>156.7418470016293</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.77238941128203</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>100.5892244534694</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>54.46079155833878</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>143.7391060166177</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>90.5857698912982</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>24.96762110967096</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>273.7800777304673</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>2.303965687749757</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.18858666156088</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>36.88234405457748</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>68.03265560120187</v>
       </c>
       <c r="F25" t="n">
-        <v>66.3186384664633</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206822</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>62.82925144777973</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>119.1164538114423</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898708</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885716</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692842</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329049</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373685</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789825</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463123</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415204</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539625</v>
+        <v>164.3650309254218</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287485</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689366</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593964</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373658</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>153.5420247171272</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522962</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>164.3675597136118</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.733841663483</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329022</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>139.0551504791176</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274043</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>32.8965767413795</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689361</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4034,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701381</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>188.8435294298344</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365911</v>
+        <v>97.12772045570685</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,13 +4336,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2601.143669949251</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2382.509002921313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2382.509002921313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2382.509002921313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.509002921313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.509002921313</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.509002921313</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4391,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0200655508537</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>517.0200655508537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.0200655508537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>517.0200655508537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>517.0200655508537</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>517.0200655508537</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>517.0200655508537</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.0200655508537</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>783.6978639085316</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>365.7340558067185</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2669.096172420968</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2669.096172420968</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2669.096172420968</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2669.096172420968</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2338.033285077397</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4665,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4750,25 +4752,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>643.7011644960776</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>643.7011644960776</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>484.4236418782189</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1181.549686895097</v>
+        <v>942.2179168761943</v>
       </c>
       <c r="C8" t="n">
-        <v>1181.549686895097</v>
+        <v>942.2179168761943</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.549686895097</v>
+        <v>942.2179168761943</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>556.42966427795</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>145.4437594883424</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.149526959219</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810045</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810045</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810045</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810045</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810045</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810045</v>
+        <v>525.3455871915424</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810045</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810045</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810045</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,22 +5029,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5060,25 +5062,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341678</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>1022.450727412377</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>794.4611765143592</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,40 +5278,40 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823777</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5355,28 +5357,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>524.5778132641557</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609671</v>
+        <v>1296.669022405021</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550802</v>
+        <v>1041.984534199134</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181196</v>
+        <v>752.567364162173</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201023</v>
+        <v>524.5778132641557</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>524.5778132641557</v>
       </c>
     </row>
     <row r="17">
@@ -5495,49 +5497,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011339</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.104817265285</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>134.4719844447075</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>134.4719844447075</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>134.4719844447075</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>134.4719844447075</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5707,16 +5709,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X19" t="n">
-        <v>558.0926555785013</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y19" t="n">
-        <v>337.3000764349712</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="20">
@@ -5747,37 +5749,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,7 +5788,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5826,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5847,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>592.8217113586345</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.5895395384766</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="C25" t="n">
-        <v>612.6533566105697</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="D25" t="n">
-        <v>462.536717198234</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="E25" t="n">
-        <v>314.6236236158409</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.579090436494</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X25" t="n">
-        <v>781.5895395384766</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y25" t="n">
-        <v>781.5895395384766</v>
+        <v>592.5368061590563</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6205,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514079</v>
@@ -6251,13 +6253,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
         <v>3931.29497012173</v>
@@ -6309,16 +6311,16 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>738.7219969042602</v>
+        <v>533.6251570374466</v>
       </c>
       <c r="C28" t="n">
-        <v>738.7219969042602</v>
+        <v>533.6251570374466</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529675</v>
+        <v>533.6251570374466</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>385.7120634550535</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344999</v>
+        <v>936.0662010112164</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.3704617344999</v>
+        <v>715.2736218676863</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,52 +6463,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6555,13 +6557,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3481.79397174047</v>
+        <v>3774.981524342492</v>
       </c>
       <c r="C31" t="n">
-        <v>3381.677879852604</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="D31" t="n">
-        <v>3300.381331480309</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="E31" t="n">
-        <v>3221.288328937957</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F31" t="n">
-        <v>3143.218472480088</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G31" t="n">
-        <v>3043.86324183995</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H31" t="n">
-        <v>2962.265324427931</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>2919.55082408992</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>2999.384087782174</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>3217.02006325513</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>3532.182679494604</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>3871.199993490131</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>4209.194673746023</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>4510.520222979764</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>4754.570558813792</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4818.599560616159</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>4687.499641571752</v>
+        <v>4694.82928925124</v>
       </c>
       <c r="T31" t="n">
-        <v>4532.5343174013</v>
+        <v>4694.82928925124</v>
       </c>
       <c r="U31" t="n">
-        <v>4312.225769654899</v>
+        <v>4694.82928925124</v>
       </c>
       <c r="V31" t="n">
-        <v>4126.361372489053</v>
+        <v>4694.82928925124</v>
       </c>
       <c r="W31" t="n">
-        <v>3905.764293492133</v>
+        <v>4405.412119214279</v>
       </c>
       <c r="X31" t="n">
-        <v>3746.594833634157</v>
+        <v>4177.422568316262</v>
       </c>
       <c r="Y31" t="n">
-        <v>3594.622345530668</v>
+        <v>3956.629989172732</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6783,22 +6785,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3481.79397174047</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C34" t="n">
-        <v>3381.677879852604</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D34" t="n">
-        <v>3300.38133148031</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E34" t="n">
-        <v>3221.288328937957</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.218472480088</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>3043.86324183995</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>2962.265324427935</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>2919.550824089923</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>2999.384087782177</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3217.020063255133</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3532.182679494606</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>3871.199993490133</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4209.194673746025</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4510.520222979766</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4754.570558813793</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4818.59956061616</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4687.499641571753</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.534317401301</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4312.2257696549</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>4126.361372489054</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>3905.764293492134</v>
+        <v>865.3534128817969</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.594833634158</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="Y34" t="n">
-        <v>3594.622345530669</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>735.0407559057232</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,10 +7168,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7178,46 +7180,46 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619131</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.193690363625</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7287,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>157.2587625717277</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>306.3284467737875</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L42" t="n">
-        <v>553.0935746802515</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M42" t="n">
-        <v>1321.461721072713</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1651.324348736746</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525397</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="44">
@@ -7628,58 +7630,58 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823812</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751411</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619131</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.29497012173</v>
@@ -7701,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>397.7517393246786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>397.7517393246786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119727</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1197.090127291611</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>907.9614885051694</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V46" t="n">
-        <v>907.9614885051694</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W46" t="n">
-        <v>618.5443184682088</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>618.5443184682088</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>397.7517393246786</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229571</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>189.0022427662469</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720726</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208054</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>73.53204524670002</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>182.0340742867944</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814688</v>
+        <v>20.63789864135413</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10431,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>76.43196988338491</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504529</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>18.73797368291327</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720763</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>12.74292060612368</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>283.9333867108276</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0576765518765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108.6433935203764</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>129.6112244088001</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24175,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>78.4013070453673</v>
       </c>
       <c r="F25" t="n">
-        <v>79.10240955646795</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>85.78622157043262</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>26.30459421148892</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>33.55577905818143</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>132.9809736194638</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>33.55325026999142</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>79.52950287297722</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>112.5244712815517</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>32.70403162855493</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>189.3952778808842</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632775.4335457659</v>
+        <v>632775.4335457658</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457658</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632775.4335457658</v>
+        <v>632775.433545766</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632775.4335457659</v>
+        <v>632775.433545766</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>663962.3538568586</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>663962.3538568586</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>663962.3538568586</v>
+        <v>632775.4335457658</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>663962.3538568586</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>663962.3538568586</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710689</v>
-      </c>
-      <c r="C2" t="n">
-        <v>779989.6813710689</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="G2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="I2" t="n">
+        <v>742955.2135016468</v>
+      </c>
+      <c r="J2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="L2" t="n">
         <v>742955.213501647</v>
       </c>
-      <c r="K2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710696</v>
-      </c>
       <c r="M2" t="n">
-        <v>779989.6813710693</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710695</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710696</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.5121037126</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159209</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159208</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007444</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007457</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007438</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007517</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="K4" t="n">
-        <v>30335.51889732799</v>
-      </c>
       <c r="L4" t="n">
-        <v>30335.51889732795</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732786</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007303</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002542</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40754.32462280578</v>
+        <v>-40754.3246228059</v>
       </c>
       <c r="C6" t="n">
+        <v>549213.5545917387</v>
+      </c>
+      <c r="D6" t="n">
         <v>549213.5545917386</v>
       </c>
-      <c r="D6" t="n">
-        <v>549213.5545917387</v>
-      </c>
       <c r="E6" t="n">
-        <v>117891.1194200264</v>
+        <v>117891.1194200269</v>
       </c>
       <c r="F6" t="n">
-        <v>643051.1558969234</v>
+        <v>643051.155896923</v>
       </c>
       <c r="G6" t="n">
-        <v>643051.1558969233</v>
+        <v>643051.1558969232</v>
       </c>
       <c r="H6" t="n">
         <v>643051.1558969232</v>
       </c>
       <c r="I6" t="n">
+        <v>643051.1558969227</v>
+      </c>
+      <c r="J6" t="n">
+        <v>466627.9367043301</v>
+      </c>
+      <c r="K6" t="n">
+        <v>643051.1558969232</v>
+      </c>
+      <c r="L6" t="n">
+        <v>643051.1558969229</v>
+      </c>
+      <c r="M6" t="n">
+        <v>508250.140663086</v>
+      </c>
+      <c r="N6" t="n">
         <v>643051.155896923</v>
       </c>
-      <c r="J6" t="n">
-        <v>466627.93670433</v>
-      </c>
-      <c r="K6" t="n">
-        <v>597433.5445500035</v>
-      </c>
-      <c r="L6" t="n">
-        <v>651939.0566537164</v>
-      </c>
-      <c r="M6" t="n">
-        <v>517138.0414198787</v>
-      </c>
-      <c r="N6" t="n">
-        <v>651939.0566537163</v>
-      </c>
       <c r="O6" t="n">
-        <v>651939.0566537163</v>
+        <v>643051.1558969233</v>
       </c>
       <c r="P6" t="n">
-        <v>643051.1558969229</v>
+        <v>643051.1558969232</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26709,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964075</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26823,13 +26825,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>296.2020293175727</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.8487485255012</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>43.13981385480332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>184.7423106070419</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>167.1809257627279</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.7060131635297</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>45.8447381930998</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>170.5743138997455</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>238.1912640556441</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>323.1984001294968</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>136.1454511924346</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>227.170022214157</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29278,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32074,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734236</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>471.365945007355</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507422</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415069</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523302</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35972,16 +35974,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>355.8957474878082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36437,10 +36439,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>332.6095128747336</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36677,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341712</v>
+        <v>269.8956035973785</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,10 +36688,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36923,16 +36925,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146953</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520628</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37151,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37163,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>325.6896748394092</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109097</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37634,10 +37636,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.64815263781995</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>309.5875389014632</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37877,10 +37879,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415104</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206028</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4091085.18494927</v>
+        <v>4084068.170057558</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7411858.50509469</v>
+        <v>7411858.505094691</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>85.72834075468911</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>91.90342426864159</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.84234274505287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>156.7418470016293</v>
+        <v>150.457594325946</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,13 +946,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>100.5892244534694</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>90.5857698912982</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>301.0462453066053</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.5268783873314</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>24.96762110967096</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113169</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>273.7800777304673</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>11.79729717122489</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>63.79141683510382</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.303965687749757</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>36.88234405457748</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>47.20011114811113</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>68.03265560120187</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>220.4855699130511</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>119.1164538114423</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>164.3650309254218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.5420247171272</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>164.3675597136118</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y40" t="n">
-        <v>139.0551504791176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>32.8965767413795</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>70.92355888951691</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.12772045570685</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.952954307291</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D2" t="n">
-        <v>1122.952954307291</v>
+        <v>957.4722849551219</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>571.6840323568777</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>160.6981275672701</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>146.774723505861</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>146.774723505861</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.683768698139</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.683768698139</v>
+        <v>1170.083887280542</v>
       </c>
       <c r="E5" t="n">
-        <v>1194.683768698139</v>
+        <v>784.2956346822975</v>
       </c>
       <c r="F5" t="n">
-        <v>783.6978639085316</v>
+        <v>373.30972989269</v>
       </c>
       <c r="G5" t="n">
-        <v>365.7340558067185</v>
+        <v>359.3863258312809</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782189</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
-        <v>484.4236418782189</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>484.4236418782189</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524922</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>942.2179168761943</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>942.2179168761943</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>942.2179168761943</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>556.42966427795</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>145.4437594883424</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.957088916128</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.817756940316</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545818</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545818</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545818</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>525.3455871915424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,64 +5017,64 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080546</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5126,22 +5126,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W13" t="n">
-        <v>1022.450727412377</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X13" t="n">
-        <v>794.4611765143592</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.668597370829</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,40 +5275,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465302</v>
@@ -5317,7 +5317,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>524.5778132641557</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1296.669022405021</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1041.984534199134</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>752.567364162173</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>524.5778132641557</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y16" t="n">
-        <v>524.5778132641557</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="17">
@@ -5500,43 +5500,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2361.490124716568</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>134.4719844447075</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>134.4719844447075</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>134.4719844447075</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>134.4719844447075</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5712,13 +5712,13 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706318</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,13 +5743,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5776,7 +5776,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5952,10 +5952,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,10 +5974,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5989,22 +5989,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>592.5368061590563</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570736</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W25" t="n">
-        <v>820.5263570570736</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X25" t="n">
-        <v>592.5368061590563</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y25" t="n">
-        <v>592.5368061590563</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6205,13 +6205,13 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6220,46 +6220,46 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.29497012173</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>533.6251570374466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>533.6251570374466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>533.6251570374466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>385.7120634550535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1164.055751909234</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>936.0662010112164</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.2736218676863</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6557,10 +6557,10 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3774.981524342492</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4694.82928925124</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4694.82928925124</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>4694.82928925124</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>4694.82928925124</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W31" t="n">
-        <v>4405.412119214279</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X31" t="n">
-        <v>4177.422568316262</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3956.629989172732</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,28 +6679,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>865.3534128817969</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>637.3638619837795</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1332.888432463345</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1332.888432463345</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>1043.759793676903</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>789.0753054710162</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W37" t="n">
-        <v>499.6581354340557</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7168,7 +7168,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.130185042679</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>385.5899330013836</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>385.5899330013836</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y40" t="n">
-        <v>245.130185042679</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="41">
@@ -7414,10 +7414,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>570.0299571250968</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>785.4801130615103</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>898.7925182488382</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>644.1080300429513</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>967.1285778917501</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>189.0022427662469</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.7176547498452</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>20.63789864135413</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>349.7653003338568</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>159.0121003135239</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>12.74292060612368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>206.7873561808699</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>116.0405633468335</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>283.9333867108276</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>129.6112244088001</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>178.509544240926</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>78.4013070453673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.061991145338197</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>26.30459421148892</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>33.55577905818143</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>132.9809736194638</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0.248493479477105</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>33.55325026999142</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y40" t="n">
-        <v>79.52950287297722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>112.5244712815517</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>96.32326220911092</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26079,16 +26079,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>189.3952778808842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632775.4335457658</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632775.4335457658</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632775.4335457658</v>
+        <v>632775.433545766</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632775.4335457659</v>
+        <v>632775.433545766</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
       <c r="F2" t="n">
         <v>742955.2135016471</v>
@@ -26331,31 +26331,31 @@
         <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016468</v>
+        <v>742955.213501647</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016475</v>
       </c>
       <c r="K2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="L2" t="n">
+        <v>742955.2135016468</v>
+      </c>
+      <c r="M2" t="n">
         <v>742955.213501647</v>
       </c>
-      <c r="M2" t="n">
-        <v>742955.2135016472</v>
-      </c>
       <c r="N2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="O2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="O2" t="n">
-        <v>742955.2135016473</v>
-      </c>
       <c r="P2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007451</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007517</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40754.3246228059</v>
+        <v>-40754.32462280578</v>
       </c>
       <c r="C6" t="n">
+        <v>549213.5545917386</v>
+      </c>
+      <c r="D6" t="n">
         <v>549213.5545917387</v>
       </c>
-      <c r="D6" t="n">
-        <v>549213.5545917386</v>
-      </c>
       <c r="E6" t="n">
-        <v>117891.1194200269</v>
+        <v>116916.5281603051</v>
       </c>
       <c r="F6" t="n">
-        <v>643051.155896923</v>
+        <v>642076.5646372014</v>
       </c>
       <c r="G6" t="n">
-        <v>643051.1558969232</v>
+        <v>642076.5646372015</v>
       </c>
       <c r="H6" t="n">
-        <v>643051.1558969232</v>
+        <v>642076.5646372013</v>
       </c>
       <c r="I6" t="n">
-        <v>643051.1558969227</v>
+        <v>642076.5646372013</v>
       </c>
       <c r="J6" t="n">
-        <v>466627.9367043301</v>
+        <v>465653.3454446088</v>
       </c>
       <c r="K6" t="n">
-        <v>643051.1558969232</v>
+        <v>642076.5646372015</v>
       </c>
       <c r="L6" t="n">
-        <v>643051.1558969229</v>
+        <v>642076.564637201</v>
       </c>
       <c r="M6" t="n">
-        <v>508250.140663086</v>
+        <v>507275.5494033641</v>
       </c>
       <c r="N6" t="n">
-        <v>643051.155896923</v>
+        <v>642076.5646372013</v>
       </c>
       <c r="O6" t="n">
-        <v>643051.1558969233</v>
+        <v>642076.5646372014</v>
       </c>
       <c r="P6" t="n">
-        <v>643051.1558969232</v>
+        <v>642076.5646372013</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>296.2020293175727</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>60.02789197621966</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>6.771212764859825</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.7423106070419</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>167.1809257627279</v>
+        <v>173.4651784384112</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946059</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>45.8447381930998</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>323.1984001294968</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27906,16 +27906,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>48.19472341080774</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>227.170022214157</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>471.365945007355</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35977,13 +35977,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>269.8956035973785</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36688,10 +36688,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>462.3874039146953</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37636,16 +37636,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>632.1290025749649</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>309.5875389014632</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4084068.170057558</v>
+        <v>4089007.43290659</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>325.0967979665126</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>91.90342426864159</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -867,13 +867,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3743261851591</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>157.3336400676575</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>150.457594325946</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.52687838733143</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>162.1522950416826</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>301.0462453066053</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.5268783873314</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113169</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>62.74236544294397</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.79729717122489</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.79141683510382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>79.06553162826584</v>
       </c>
     </row>
     <row r="17">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>47.20011114811113</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>220.4855699130511</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>207.0920728594998</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>182.8414065694712</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.1854691670921</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>215.0546805228902</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>70.92355888951691</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4309,22 +4309,22 @@
         <v>1315.737983561872</v>
       </c>
       <c r="C2" t="n">
-        <v>1315.737983561872</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D2" t="n">
-        <v>957.4722849551219</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="E2" t="n">
-        <v>571.6840323568777</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="F2" t="n">
-        <v>160.6981275672701</v>
+        <v>535.7895618318532</v>
       </c>
       <c r="G2" t="n">
-        <v>146.774723505861</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>146.774723505861</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4515,10 +4515,10 @@
         <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>343.1165921657965</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
         <v>53.94298182036445</v>
@@ -4555,10 +4555,10 @@
         <v>784.2956346822975</v>
       </c>
       <c r="F5" t="n">
-        <v>373.30972989269</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>359.3863258312809</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>371.1991548370755</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5032,58 +5032,58 @@
         <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080546</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>160.5932181703303</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>160.5932181703303</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>160.5932181703303</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>160.5932181703303</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>160.5932181703303</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5241,10 +5241,10 @@
         <v>609.3753482118777</v>
       </c>
       <c r="X13" t="n">
-        <v>609.3753482118777</v>
+        <v>381.3857973138604</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.4588864227617</v>
+        <v>160.5932181703303</v>
       </c>
     </row>
     <row r="14">
@@ -5254,61 +5254,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465302</v>
@@ -5354,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.2811958984813</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229244</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y16" t="n">
-        <v>760.7169704793943</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5500,19 +5500,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823783</v>
@@ -5612,7 +5612,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,61 +5743,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,28 +5819,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,7 +5849,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>394.223678370532</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155894</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>965.2084601534104</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>965.2084601534104</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>965.2084601534104</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>675.7912901164498</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>447.8017392184324</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,43 +6214,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6411,19 +6411,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>1314.22798109379</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324574</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954967</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="32">
@@ -6685,40 +6685,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6885,19 +6885,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6931,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>675.0071030383442</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>675.0071030383442</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,13 +7262,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>1281.689320534781</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7414,16 +7414,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7596,7 +7596,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>785.4801130615103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.92115703528</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1187.92115703528</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>1187.92115703528</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>967.1285778917501</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>103.7512030204336</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.7873561808699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.0405633468335</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23712,7 +23712,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>139.519121723829</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>79.43092547709131</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>178.509544240926</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.061991145338197</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>79.43092547709125</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>103.3959458291061</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0.248493479477105</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>10.654974866147</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>96.32326220911092</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>282.8896567338145</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632775.4335457659</v>
+        <v>632775.433545766</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>742955.213501647</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016472</v>
@@ -26334,28 +26334,28 @@
         <v>742955.213501647</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="K2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="L2" t="n">
-        <v>742955.2135016468</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="M2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="O2" t="n">
         <v>742955.213501647</v>
       </c>
-      <c r="N2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016471</v>
-      </c>
       <c r="P2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007523</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007451</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007532</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40754.32462280578</v>
+        <v>-40754.32462280602</v>
       </c>
       <c r="C6" t="n">
-        <v>549213.5545917386</v>
+        <v>549213.5545917387</v>
       </c>
       <c r="D6" t="n">
         <v>549213.5545917387</v>
       </c>
       <c r="E6" t="n">
-        <v>116916.5281603051</v>
+        <v>117793.6602940544</v>
       </c>
       <c r="F6" t="n">
-        <v>642076.5646372014</v>
+        <v>642953.6967709508</v>
       </c>
       <c r="G6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.696770951</v>
       </c>
       <c r="H6" t="n">
-        <v>642076.5646372013</v>
+        <v>642953.6967709507</v>
       </c>
       <c r="I6" t="n">
-        <v>642076.5646372013</v>
+        <v>642953.6967709512</v>
       </c>
       <c r="J6" t="n">
-        <v>465653.3454446088</v>
+        <v>466530.477578358</v>
       </c>
       <c r="K6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.696770951</v>
       </c>
       <c r="L6" t="n">
-        <v>642076.564637201</v>
+        <v>642953.6967709512</v>
       </c>
       <c r="M6" t="n">
-        <v>507275.5494033641</v>
+        <v>508152.6815371139</v>
       </c>
       <c r="N6" t="n">
-        <v>642076.5646372013</v>
+        <v>642953.696770951</v>
       </c>
       <c r="O6" t="n">
-        <v>642076.5646372014</v>
+        <v>642953.6967709508</v>
       </c>
       <c r="P6" t="n">
-        <v>642076.5646372013</v>
+        <v>642953.6967709512</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26749,37 +26749,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>88.68737205428238</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>60.02789197621966</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6.771212764859825</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>249.5424056740539</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>173.4651784384112</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.3051017946059</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>251.6318749791124</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>48.19472341080774</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.7829238717195</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
